--- a/altinkaya_excel_export/export_account_invoice_xlsx/zirve_masraf_fatura.xlsx
+++ b/altinkaya_excel_export/export_account_invoice_xlsx/zirve_masraf_fatura.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -31,13 +31,7 @@
     <t xml:space="preserve">Tipi</t>
   </si>
   <si>
-    <t xml:space="preserve">Tevkifatlı</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeni Tipi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari Adı</t>
+    <t xml:space="preserve">Cari Adi</t>
   </si>
   <si>
     <t xml:space="preserve">Vergi No</t>
@@ -46,34 +40,34 @@
     <t xml:space="preserve">Vergi Kırp</t>
   </si>
   <si>
+    <t xml:space="preserve">Matrah 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDV8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrah 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDV 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matrah</t>
   </si>
   <si>
-    <t xml:space="preserve">Cari Hesap Kodu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cari Hesap kirp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhasebe kodları</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vergi Hesap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vergi Matrah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vergi Tutar</t>
+    <t xml:space="preserve">KDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDV Oranı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hesap Kodu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hesap kirp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doviz</t>
   </si>
 </sst>
 </file>
@@ -84,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,11 +101,17 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -130,6 +130,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -156,20 +163,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,29 +205,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:IW1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM2" activeCellId="0" sqref="AM2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="61.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,16 +248,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -264,73 +269,249 @@
       <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM1" s="1"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="n">
+        <v>399</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="4"/>
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="4"/>
+      <c r="IV1" s="4"/>
+      <c r="IW1" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
